--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -50,7 +50,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -507,7 +507,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>5000</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>5000</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5000</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5001</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>5001</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>5004</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>5004</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>5022</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>5033</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>5033</v>
       </c>
@@ -915,7 +915,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>5033</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -975,7 +975,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1001,7 +1001,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1027,7 +1027,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1053,7 +1053,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1079,7 +1079,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1105,7 +1105,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -1131,7 +1131,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1157,7 +1157,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>

--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -950,10 +950,18 @@
       <c r="X14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="4">
+        <v>77</v>
+      </c>
+      <c r="B15" s="4">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -976,10 +984,18 @@
       <c r="X15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="4">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>

--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>codigo_pai</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>nivel_filho</t>
+  </si>
+  <si>
+    <t>php</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -684,8 +687,8 @@
       <c r="B7" s="4">
         <v>5004</v>
       </c>
-      <c r="C7" s="5">
-        <v>3</v>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>

--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -512,7 +512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>

--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>codigo_pai</t>
   </si>
@@ -22,13 +22,10 @@
     <t>codigo_filho</t>
   </si>
   <si>
-    <t>nivel_pai</t>
+    <t>MSDOS</t>
   </si>
   <si>
-    <t>nivel_filho</t>
-  </si>
-  <si>
-    <t>php</t>
+    <t>GNU</t>
   </si>
 </sst>
 </file>
@@ -105,12 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -132,9 +129,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -450,30 +444,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="9.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -483,12 +477,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -517,12 +507,8 @@
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <v>77</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -551,12 +537,8 @@
       <c r="B3" s="4">
         <v>5000</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
       <c r="G3" s="3"/>
@@ -585,12 +567,8 @@
       <c r="B4" s="4">
         <v>5001</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -619,12 +597,8 @@
       <c r="B5" s="4">
         <v>5002</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -653,12 +627,8 @@
       <c r="B6" s="4">
         <v>5003</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -687,12 +657,8 @@
       <c r="B7" s="4">
         <v>5004</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -721,12 +687,8 @@
       <c r="B8" s="4">
         <v>5000</v>
       </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -755,12 +717,8 @@
       <c r="B9" s="4">
         <v>5006</v>
       </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -789,12 +747,8 @@
       <c r="B10" s="4">
         <v>5007</v>
       </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -823,12 +777,8 @@
       <c r="B11" s="4">
         <v>5007</v>
       </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -857,12 +807,8 @@
       <c r="B12" s="4">
         <v>5010</v>
       </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -891,12 +837,8 @@
       <c r="B13" s="4">
         <v>5011</v>
       </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -925,12 +867,8 @@
       <c r="B14" s="4">
         <v>5013</v>
       </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -959,12 +897,8 @@
       <c r="B15" s="4">
         <v>55</v>
       </c>
-      <c r="C15" s="5">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -987,18 +921,14 @@
       <c r="X15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4">
-        <v>77</v>
+      <c r="A16" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B16" s="4">
-        <v>66</v>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="C16" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5">
-        <v>7</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>

--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -862,10 +862,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
-        <v>5033</v>
+        <v>-88</v>
       </c>
       <c r="B14" s="4">
-        <v>5013</v>
+        <v>-89</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1132,7 +1132,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1158,7 +1158,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1184,7 +1184,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1210,7 +1210,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>

--- a/input_data/data_errors/5_composicao/composicao.xlsx
+++ b/input_data/data_errors/5_composicao/composicao.xlsx
@@ -835,7 +835,7 @@
         <v>5033</v>
       </c>
       <c r="B13" s="4">
-        <v>5011</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
